--- a/数据整理/stocks/A股/创业板/300724-捷佳伟创.xlsx
+++ b/数据整理/stocks/A股/创业板/300724-捷佳伟创.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6065,4 +6066,1998 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>952009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰君安君得鑫两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>100.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.4483</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002011</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏红利混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>88.60</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.1453</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010792</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>31.93</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.0014</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>952099</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰君安君得鑫两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>79.82</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.03</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.7458</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>213001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>35.56</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.1336</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001071</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安媒体互联网混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>45.86</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.16</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.0133</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160314</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏行业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>21.17</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.0069</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>952004</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰君安君得明混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>48.90</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.35</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.7653</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>161040</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>40.21</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.5963</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006879</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安智能生活混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>25.60</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>82.99</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.1494</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>160106</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方高增长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>18.49</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0447</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005368</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国清洁能源产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>17.43</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6867</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011102</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业指数A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>24.16</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5919</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010793</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4860</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011103</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业指数C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>18.50</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4532</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>161605</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>融通蓝筹成长混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>77.26</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4031</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000717</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3991</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007460</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华安成长创新混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>83.20</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3518</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000940</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>10.07</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3011</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010033</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>安信成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2899</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>160425</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华安创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>96.26</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2632</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>100039</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富国通胀通缩主题混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2605</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002770</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>安信新回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87.57</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2320</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>379010</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>上投摩根中小盘混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2159</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>952035</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国泰君安君得诚混合型集合资产管理计划</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.51</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2102</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>040015</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华安动态灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>79.67</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1921</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>159857</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>99.10</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1200</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002771</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>安信新回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>87.57</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1151</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007581</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0996</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>501097</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国寿安保科技创新3年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>38.41</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0919</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006154</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华安制造先锋混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0738</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>516180</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>平安中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0591</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>159863</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>鹏华中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>96.28</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010034</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>安信成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>002495</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>前海开源量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>003670</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中融物联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>310368</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>申万菱信竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>004284</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华宝新优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>53.81</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>000458</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>英大领先回报混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005444</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>光大保德信多策略精选18个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>41.62</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005844</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>东方人工智能主题混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>002496</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>前海开源量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>004194</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001800</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华安新乐享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>24.64</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001905</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华安安益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>20.23</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>003646</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009828</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>004195</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011127</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>富国清洁能源产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>003647</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>001797</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华融新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>62.86</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300724-捷佳伟创.xlsx
+++ b/数据整理/stocks/A股/创业板/300724-捷佳伟创.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8060,4 +8061,1616 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国天惠成长混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>398.99</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.9748</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002011</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏红利混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>82.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.4369</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>952009</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰君安君得鑫两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>82.43</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.80</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.4070</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>952099</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰君安君得鑫两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>68.76</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.80</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.0078</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160314</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏行业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>21.90</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.7476</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010094</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银施罗德产业机遇混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>25.42</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.15</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3422</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519773</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>交银施罗德数据产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>21.44</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>73.31</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0720</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012748</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰柏瑞远见智选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>41.76</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>56.64</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9939</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005368</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国清洁能源产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>22.51</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9657</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010792</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>23.63</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9452</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003494</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国天惠成长混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>31.14</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7785</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002095</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>78.97</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6181</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>202001</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方稳健成长混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>23.98</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>77.25</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5803</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>288001</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏经典配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>17.73</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>64.21</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5479</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002148</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国寿安保稳惠灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>11.07</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4804</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>519690</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>交银稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>20.17</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>70.49</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4800</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>202002</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方稳健成长贰号混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>18.58</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>76.80</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4311</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>160143</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>南方创业板2年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9.97</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>97.48</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4058</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002770</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>安信新回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>80.07</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2611</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002096</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>78.97</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2181</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010793</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2104</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010033</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>安信成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>82.10</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1925</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000717</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1566</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>501097</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国寿安保科技创新3年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>38.41</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1443</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002771</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>安信新回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>80.07</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1380</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002160</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>南方转型驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1067</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012749</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华泰柏瑞远见智选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>56.64</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1021</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>160324</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华夏磐晟灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>86.32</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0620</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006323</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>79.75</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0556</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011765</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011127</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>富国清洁能源产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002863</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>金信深圳成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006324</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>79.75</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>003413</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010034</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>安信成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>82.10</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011766</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>004194</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>004195</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005146</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>兴银丰润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009828</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>960017</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>交银稳健配置混合H</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>70.49</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300724-捷佳伟创.xlsx
+++ b/数据整理/stocks/A股/创业板/300724-捷佳伟创.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9673,4 +9674,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>41</v>
+      </c>
+      <c r="D2" t="n">
+        <v>31.08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>51</v>
+      </c>
+      <c r="D3" t="n">
+        <v>30.21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>59</v>
+      </c>
+      <c r="D4" t="n">
+        <v>28.1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>86</v>
+      </c>
+      <c r="D5" t="n">
+        <v>45.67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300724-捷佳伟创.xlsx
+++ b/数据整理/stocks/A股/创业板/300724-捷佳伟创.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9682,7 +9683,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9693,17 +9694,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -9713,14 +9734,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>41</v>
-      </c>
-      <c r="D2" t="n">
-        <v>31.08</v>
+          <t>011531</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>朱雀恒心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.3044</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -9729,14 +9772,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>51</v>
-      </c>
-      <c r="D3" t="n">
-        <v>30.21</v>
+          <t>001245</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信生态环境行业股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>57.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8412</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -9745,14 +9810,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>59</v>
-      </c>
-      <c r="D4" t="n">
-        <v>28.1</v>
+          <t>160314</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏行业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.89</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7556</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -9761,13 +9848,1215 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>011338</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴全合远两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>41.03</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.50</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6289</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010922</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>朱雀匠心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>25.58</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4248</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>340006</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴全全球视野股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>26.66</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.39</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9971</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010141</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>18.55</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8385</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>952004</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰君安君得明混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>31.17</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7418</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007494</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>17.18</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5910</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010122</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华泰柏瑞优势领航混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>15.04</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5805</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010490</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华高质量增长混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>17.84</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4799</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012850</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中融低碳经济3个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>13.02</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>70.57</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3789</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010142</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2988</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007493</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2924</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008294</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2720</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007880</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1898</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006424</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉合锦程价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>81.77</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1680</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009023</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华稳健回报混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1402</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008295</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0870</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003670</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中融物联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0843</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011339</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>兴全合远两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.50</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0746</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006425</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉合锦程价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>81.77</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0740</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012851</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中融低碳经济3个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>70.57</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0544</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006323</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>79.37</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0487</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002863</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>金信深圳成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007881</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005090</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>嘉合睿金定期开放灵活配置混合型发起式A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010123</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华泰柏瑞优势领航混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006324</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>79.37</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005091</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>嘉合睿金定期开放灵活配置混合型发起式C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010491</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>鹏华高质量增长混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>003835</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>鹏华沪深港新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>73.96</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>32</v>
+      </c>
+      <c r="D2" t="n">
+        <v>17.54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>41</v>
+      </c>
+      <c r="D3" t="n">
+        <v>31.08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>51</v>
+      </c>
+      <c r="D4" t="n">
+        <v>30.21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>59</v>
+      </c>
+      <c r="D5" t="n">
+        <v>28.1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>86</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>45.67</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300724-捷佳伟创.xlsx
+++ b/数据整理/stocks/A股/创业板/300724-捷佳伟创.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -10955,7 +10956,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10966,17 +10967,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -10986,14 +11007,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>32</v>
-      </c>
-      <c r="D2" t="n">
-        <v>17.54</v>
+          <t>160314</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏行业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6308</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -11002,14 +11045,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>41</v>
-      </c>
-      <c r="D3" t="n">
-        <v>31.08</v>
+          <t>004693</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4259</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -11018,14 +11083,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>51</v>
-      </c>
-      <c r="D4" t="n">
-        <v>30.21</v>
+          <t>004640</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏节能环保股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2284</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -11034,14 +11121,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>59</v>
-      </c>
-      <c r="D5" t="n">
-        <v>28.1</v>
+          <t>011160</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国质量成长6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0874</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -11050,13 +11159,317 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>000963</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴业多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>75.34</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0753</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005933</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>新疆前海联合先进制造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005934</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>新疆前海联合先进制造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011161</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国质量成长6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007042</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>32</v>
+      </c>
+      <c r="D3" t="n">
+        <v>17.54</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>41</v>
+      </c>
+      <c r="D4" t="n">
+        <v>31.08</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>51</v>
+      </c>
+      <c r="D5" t="n">
+        <v>30.21</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>59</v>
+      </c>
+      <c r="D6" t="n">
+        <v>28.1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>86</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>45.67</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300724-捷佳伟创.xlsx
+++ b/数据整理/stocks/A股/创业板/300724-捷佳伟创.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -11352,7 +11353,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11363,17 +11364,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -11383,14 +11404,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.51</v>
+          <t>160314</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏行业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9981</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -11399,14 +11442,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>32</v>
-      </c>
-      <c r="D3" t="n">
-        <v>17.54</v>
+          <t>161040</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>36.32</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9262</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -11415,14 +11480,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>41</v>
-      </c>
-      <c r="D4" t="n">
-        <v>31.08</v>
+          <t>010922</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>朱雀匠心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.58</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.04</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7246</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -11431,14 +11518,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>51</v>
-      </c>
-      <c r="D5" t="n">
-        <v>30.21</v>
+          <t>009312</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>新疆前海联合价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.69</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7143</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -11447,14 +11556,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>59</v>
-      </c>
-      <c r="D6" t="n">
-        <v>28.1</v>
+          <t>004693</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5357</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -11463,13 +11594,827 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>003835</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华沪深港新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3035</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004640</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏节能环保股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2985</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011160</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国质量成长6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1266</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009313</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>新疆前海联合价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1106</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002906</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0801</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000963</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>兴业多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0659</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002558</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时鑫瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>22.12</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0453</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008178</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>同泰慧盈混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.28</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014133</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银中证500六个月持有指数增强A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002907</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002559</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时鑫瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>22.12</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014134</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>工银中证500六个月持有指数增强C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008179</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>同泰慧盈混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.28</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005569</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中融智选红利股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011161</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国质量成长6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>015060</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏节能环保股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005570</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中融智选红利股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007042</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>23</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.05</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.51</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>32</v>
+      </c>
+      <c r="D4" t="n">
+        <v>17.54</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>41</v>
+      </c>
+      <c r="D5" t="n">
+        <v>31.08</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>51</v>
+      </c>
+      <c r="D6" t="n">
+        <v>30.21</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>59</v>
+      </c>
+      <c r="D7" t="n">
+        <v>28.1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>86</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>45.67</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300724-捷佳伟创.xlsx
+++ b/数据整理/stocks/A股/创业板/300724-捷佳伟创.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="D2" t="n">
-        <v>5.05</v>
+        <v>26.77</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D3" t="n">
-        <v>2.51</v>
+        <v>5.05</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>17.54</v>
+        <v>2.51</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D5" t="n">
-        <v>31.08</v>
+        <v>17.54</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D6" t="n">
-        <v>30.21</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D7" t="n">
-        <v>28.1</v>
+        <v>30.21</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>59</v>
+      </c>
+      <c r="D8" t="n">
+        <v>28.1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>86</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>45.67</v>
       </c>
     </row>
@@ -600,6 +617,3702 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H97"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001856</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达环保主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.0895</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000603</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>56.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.0227</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003835</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华沪深港新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>42.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5368</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009861</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20.81</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3589</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002345</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏高端制造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>20.58</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1442</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002296</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长城行业轮动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>26.87</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0372</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000409</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华环保产业股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>33.28</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.32</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0317</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001224</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中邮新思路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>27.22</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>74.71</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9990</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005028</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13.86</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9716</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>160314</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏行业混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>16.30</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8166</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003961</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>14.18</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7444</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160607</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华价值优势混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>15.31</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6308</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>213001</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>16.06</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.42</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6087</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001298</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>金鹰民族新兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5848</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>210008</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>金鹰策略配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5778</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>470028</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富社会责任混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>10.72</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>80.45</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4835</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004640</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏节能环保股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4482</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012703</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4377</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>003962</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4126</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002620</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中邮未来新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>11.81</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>83.48</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4027</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004745</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长盛创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2997</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>013484</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长城行业轮动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2706</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012556</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长盛景气优选混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2628</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011956</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华新能源精选混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>85.90</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2477</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006976</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏华核心优势混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2361</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012816</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国泰致和两年封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2294</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>501064</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国泰价值优选灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2128</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008980</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中邮科技创新精选混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.40</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2071</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010149</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>浙商智选经济动能混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>84.36</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1936</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>015229</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华夏低碳经济一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1932</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006972</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>金鹰民安回报一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>26.02</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>22.96</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1899</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010751</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>宝盈优质成长混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1784</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008132</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>鹏华价值驱动混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1775</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011957</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>鹏华新能源精选混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>85.90</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1680</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011793</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>建信智能汽车股票</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1643</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>014119</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>金鹰时代先锋混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1633</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>003593</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国泰景气行业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>87.80</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1598</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>165313</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>建信优势动力混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>81.03</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1471</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011160</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>富国质量成长6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>85.89</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1388</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001924</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华夏国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>88.64</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1367</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>008981</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中邮科技创新精选混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>88.40</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1160</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010016</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华夏科技前沿6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>84.35</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0904</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>015230</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华夏低碳经济一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0792</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>002906</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0741</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>952035</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>国泰君安君得诚混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>80.66</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0726</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>000963</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>兴业多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>83.65</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0610</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>014781</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>建信兴衡优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>46.74</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0549</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>012710</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华夏核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0540</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>015058</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华夏高端制造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0528</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>003300</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华夏圆和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>75.31</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>168207</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中融创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>83.05</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0476</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009862</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>鹏华新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>014903</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>长城新能源股票C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0414</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>004044</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>金鹰转型动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>88.13</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010017</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华夏科技前沿6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>84.35</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>004292</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>鹏华沪深港互联网股票</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>014133</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>工银中证500六个月持有指数增强A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>010148</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>浙商智选经济动能混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>84.36</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010752</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>宝盈优质成长混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>007581</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>87.42</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>014571</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>东吴安享量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>580007</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>东吴安享量化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>014902</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>长城新能源股票A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>014782</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>建信兴衡优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>46.74</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>015068</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华夏圆和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>75.31</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>005826</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华夏潜龙精选股票</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>83.16</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>015060</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>华夏节能环保股票C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>007735</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>金鹰民安回报一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>22.96</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>012496</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>同泰行业优选股票A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>014120</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>金鹰时代先锋混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>002907</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>014134</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>工银中证500六个月持有指数增强C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>010666</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>博时高端装备混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>001229</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>德邦福鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>010665</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>博时高端装备混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>002106</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>德邦福鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>009486</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>光大保德信瑞和混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>009487</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>光大保德信瑞和混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>012817</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>国泰致和两年封闭运作混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>001351</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>012497</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>同泰行业优选股票C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>011761</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>平安鑫瑞混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>23.80</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>007463</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>东海科技动力混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>81.12</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>004211</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>金鹰周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>76.70</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>011161</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>富国质量成长6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>85.89</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>007439</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>东海科技动力混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>81.12</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>159918</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>嘉实中创400ETF</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>98.47</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>159932</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>大成中证500深市ETF</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>95.99</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>660011</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>农银中证500指数</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>011762</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>平安鑫瑞混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>23.80</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>011361</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>华夏博锐一年持有混合（MOM）A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>33.21</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>010355</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>015192</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>汇添富社会责任混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>80.45</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>015193</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>汇添富社会责任混合D</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>80.45</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>011362</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>华夏博锐一年持有混合（MOM）C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>33.21</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>0</v>
+      </c>
+      <c r="H96" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>016617</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>国泰价值优选灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1527,7 +5240,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1923,7 +5636,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3195,7 +6908,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4807,7 +8520,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6801,7 +10514,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9099,7 +12812,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
